--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.02427331580388</v>
+        <v>90.02007515418342</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2623072652065304</v>
+        <v>0.2777612041053131</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01513420784431</v>
+        <v>88.98806208290029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2717118860208325</v>
+        <v>0.257561324599982</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01108215142739</v>
+        <v>88.0353323902003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2656552637405796</v>
+        <v>0.2576871911455381</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.01599204929401</v>
+        <v>86.99213924714171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2612555639071124</v>
+        <v>0.2569680429984921</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.98548081737297</v>
+        <v>86.01623094864919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.299952838982805</v>
+        <v>0.2703789620342333</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.96972438282711</v>
+        <v>85.04699351057999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2458616979180762</v>
+        <v>0.2443270703852769</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.00844950196128</v>
+        <v>84.00027595015716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2510353539762588</v>
+        <v>0.2550587929228318</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.99554698888714</v>
+        <v>82.99090083457615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2769873392157427</v>
+        <v>0.2406187221078287</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01358940019935</v>
+        <v>81.98905163783051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2657869342331932</v>
+        <v>0.263551058914869</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02575265043406</v>
+        <v>81.05029795730391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2808169951902159</v>
+        <v>0.2579221859734559</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.00696509025494</v>
+        <v>79.99405974848469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.280977353081291</v>
+        <v>0.2343386559943484</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.96123255111277</v>
+        <v>79.00408260817342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2474344389355841</v>
+        <v>0.292572011403365</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.98712836661073</v>
+        <v>77.97647220589818</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2368768685335223</v>
+        <v>0.2520285057815256</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03599885194132</v>
+        <v>76.98948530084053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2434337606927556</v>
+        <v>0.2737943923751901</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0164745741985</v>
+        <v>76.00624296442797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2621895514915725</v>
+        <v>0.2785954920488592</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.99249092441613</v>
+        <v>75.00600886062185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2094340116249935</v>
+        <v>0.2374548294956852</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.98166519600784</v>
+        <v>74.03348172108714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2808857223661887</v>
+        <v>0.2524736840335654</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.05021031902656</v>
+        <v>73.02190725550388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2666603035777005</v>
+        <v>0.2627673610356385</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.98299572044557</v>
+        <v>71.98370347599058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2690532861353666</v>
+        <v>0.2448690843294896</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.99368474556364</v>
+        <v>71.02581514278231</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2925232990763957</v>
+        <v>0.2508947614942085</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.98412070085675</v>
+        <v>69.99886967902584</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2517923185702894</v>
+        <v>0.2867122214937604</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00498043811338</v>
+        <v>69.00293550710795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2410058685308988</v>
+        <v>0.2681781281270807</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.00886050413557</v>
+        <v>68.00213141227675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2400799581165626</v>
+        <v>0.259732783027216</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.98691734234291</v>
+        <v>67.01276673699796</v>
       </c>
       <c r="D25" t="n">
-        <v>0.277407623707015</v>
+        <v>0.2721660132921669</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.97906750255839</v>
+        <v>66.01068339136249</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2516119705279586</v>
+        <v>0.2571902798078396</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.96996808295499</v>
+        <v>64.97955275631813</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2597929051006004</v>
+        <v>0.278786664094396</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.94561806239717</v>
+        <v>63.99845939234957</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2383124627167853</v>
+        <v>0.2347551713842129</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.99924696995795</v>
+        <v>63.0049440896699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215472027855232</v>
+        <v>0.2598819700400717</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97141821433164</v>
+        <v>61.98536211654412</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2758726330046494</v>
+        <v>0.2585425552878258</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.0051962068144</v>
+        <v>61.00927803064036</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2039437997936935</v>
+        <v>0.2244799522304016</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.01178141191515</v>
+        <v>59.95245954344092</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2351423418591259</v>
+        <v>0.2135871244308169</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01123400642246</v>
+        <v>58.98900620038597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2675267581419353</v>
+        <v>0.2413920426180834</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.03396308548525</v>
+        <v>58.00363739068478</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2660876755382664</v>
+        <v>0.2382771414889138</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.97378045154938</v>
+        <v>56.93941758116696</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2725778098889426</v>
+        <v>0.2445138191084053</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.01900638449748</v>
+        <v>55.96993768464556</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2591821593058956</v>
+        <v>0.2284784100127104</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96196922380373</v>
+        <v>55.01217969228114</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2637852202077819</v>
+        <v>0.2499795029711348</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96593699314169</v>
+        <v>53.98148755468966</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2357837968871554</v>
+        <v>0.2380596374172796</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.99720869877803</v>
+        <v>53.05441332922425</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2780786820902294</v>
+        <v>0.2628341378414961</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.00070168067994</v>
+        <v>51.99004967495495</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2380549005091128</v>
+        <v>0.2544863254962957</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.00674152861279</v>
+        <v>51.0351677139105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2775891812282911</v>
+        <v>0.2474067438212812</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.99242281300223</v>
+        <v>50.01798632719378</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2527940130705864</v>
+        <v>0.2754800361720888</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99360944827206</v>
+        <v>48.98747845605703</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2600699136856038</v>
+        <v>0.2302229649669794</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.0092515802996</v>
+        <v>47.9796550890926</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2281981402922147</v>
+        <v>0.2206368769310698</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01977636688613</v>
+        <v>47.02854021315953</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2192998718372666</v>
+        <v>0.228653119487477</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.01126646551386</v>
+        <v>45.94395066913172</v>
       </c>
       <c r="D46" t="n">
-        <v>0.242050954129625</v>
+        <v>0.2472476356544084</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.03243008560879</v>
+        <v>45.02023669227845</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2394598400459719</v>
+        <v>0.230927398361033</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.98402558969551</v>
+        <v>44.00799988540016</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2326438853260654</v>
+        <v>0.2584039226121308</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.03654715191914</v>
+        <v>43.00355105239582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2402264177117353</v>
+        <v>0.2323598912222165</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.9781149742364</v>
+        <v>41.99698548659466</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2651622983254873</v>
+        <v>0.2610910541898455</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.00421801085376</v>
+        <v>41.03114040075364</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2339351294806375</v>
+        <v>0.2851075023291851</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.02873230793661</v>
+        <v>40.01007231917495</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2198127423606405</v>
+        <v>0.2374742609825519</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.03109968676385</v>
+        <v>39.00099223172927</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275045607891436</v>
+        <v>0.2671399333035909</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.97600994140868</v>
+        <v>37.99611241428044</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2907670016945217</v>
+        <v>0.2357362382966087</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01819402417328</v>
+        <v>37.01366528437198</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2105736418860918</v>
+        <v>0.2659234615302287</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.99440408244583</v>
+        <v>36.02298592730263</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2446579523546108</v>
+        <v>0.2532961017202754</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.02646428302906</v>
+        <v>34.98453006014105</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2603734005189459</v>
+        <v>0.2471969275085529</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.07292096538973</v>
+        <v>34.00254392529153</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1995308631270999</v>
+        <v>0.2358568049497393</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.99780875880484</v>
+        <v>33.05508579213162</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2317556426348856</v>
+        <v>0.2437348146928082</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99320047840868</v>
+        <v>32.03539827528614</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238762904019119</v>
+        <v>0.2544680996771078</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.03560403966569</v>
+        <v>30.98482709909629</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2279026278145048</v>
+        <v>0.2268316706284628</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.01870566685081</v>
+        <v>30.0205786451272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2279146015346815</v>
+        <v>0.2314820938946992</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.99115109849976</v>
+        <v>29.00143612104107</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2560698805588917</v>
+        <v>0.189363802699838</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9699255284999</v>
+        <v>28.00410170495661</v>
       </c>
       <c r="D64" t="n">
-        <v>0.229576474353406</v>
+        <v>0.2289769133459586</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.00511471215707</v>
+        <v>26.99635111267692</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2520152911124616</v>
+        <v>0.2263054174081955</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.00673169948688</v>
+        <v>25.99938283912072</v>
       </c>
       <c r="D66" t="n">
-        <v>0.246628287948261</v>
+        <v>0.2215997074057067</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02865150664015</v>
+        <v>24.98474947710984</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2486415966320661</v>
+        <v>0.2335938916864647</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.99146918204513</v>
+        <v>24.01970355373397</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2274612841994604</v>
+        <v>0.2554301488330857</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.98312618153325</v>
+        <v>22.97742249350904</v>
       </c>
       <c r="D69" t="n">
-        <v>0.224095132953439</v>
+        <v>0.2187930136995706</v>
       </c>
     </row>
   </sheetData>
